--- a/Reports/Darrian/Report.xlsx
+++ b/Reports/Darrian/Report.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\Reports\Darrian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE92B30-AAFA-4DF1-BD0F-9308865A6B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A394FA9-D34D-4CC4-8AFF-EEFDA41D3A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18225" yWindow="1245" windowWidth="17580" windowHeight="11835" activeTab="2" xr2:uid="{F64DA722-9DBF-4C3A-8102-95F0DA4AC9AD}"/>
+    <workbookView xWindow="-22080" yWindow="2640" windowWidth="17580" windowHeight="11835" activeTab="3" xr2:uid="{F64DA722-9DBF-4C3A-8102-95F0DA4AC9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="VehiclePart" sheetId="1" r:id="rId1"/>
     <sheet name="EmployeePart" sheetId="2" r:id="rId2"/>
     <sheet name="Revenue" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="InactiveCustomer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="375">
   <si>
     <t>VIN</t>
   </si>
@@ -1056,6 +1056,111 @@
   </si>
   <si>
     <t>K270E</t>
+  </si>
+  <si>
+    <t>Box Door</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>1B7GL22X8WS527664</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Tool Box</t>
+  </si>
+  <si>
+    <t>1C3EL55R92N382041</t>
+  </si>
+  <si>
+    <t>1C6RR7LM8ES473782</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>1FCJE39H9LHB90581</t>
+  </si>
+  <si>
+    <t>Tarp</t>
+  </si>
+  <si>
+    <t>1FDKE37S3VHB26425</t>
+  </si>
+  <si>
+    <t>Front Bumper</t>
+  </si>
+  <si>
+    <t>1G1ZG57B19F123557</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>1GKFK33039R211644</t>
+  </si>
+  <si>
+    <t>Power Take-Off</t>
+  </si>
+  <si>
+    <t>Hitch</t>
+  </si>
+  <si>
+    <t>1GNSCCE07BR355358</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>2C3LA63H67H781387</t>
+  </si>
+  <si>
+    <t>2G4WD532651270530</t>
+  </si>
+  <si>
+    <t>2HSCEAXR7YC012070</t>
+  </si>
+  <si>
+    <t>3VWJM71K48M168490</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Mount</t>
+  </si>
+  <si>
+    <t>JN8AZ1MWXDW321873</t>
+  </si>
+  <si>
+    <t>KNAFU5A27C5688952</t>
+  </si>
+  <si>
+    <t>WBAVA33557PG84279</t>
+  </si>
+  <si>
+    <t>WDBJF65J3YB093912</t>
+  </si>
+  <si>
+    <t>WDBUF87J56X135129</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
+  </si>
+  <si>
+    <t>INACTIVE-PREMIUM</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,6 +1230,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1440,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B12A13-349D-4F21-BCF1-3D0C56DD031D}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,10 +1597,10 @@
         <v>328</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,10 +1617,10 @@
         <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,95 +1640,95 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="B5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C5" t="s">
         <v>327</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C6" t="s">
         <v>327</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="B7">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="5">
-        <v>520</v>
+        <v>327</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="C8" t="s">
         <v>327</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="B9">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C9" t="s">
         <v>327</v>
@@ -1630,378 +1737,378 @@
         <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C10" t="s">
         <v>330</v>
       </c>
       <c r="D10" s="5">
-        <v>367</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="C12" t="s">
         <v>327</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="D13" s="5">
+        <v>367</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="B14">
         <v>2011</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="5">
-        <v>365</v>
+        <v>327</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="B15">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="5">
-        <v>365</v>
+        <v>327</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="5">
-        <v>569</v>
+        <v>335</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="5">
-        <v>367</v>
+        <v>327</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="5">
-        <v>520</v>
+        <v>327</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="D19" s="5">
+        <v>365</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C20" t="s">
         <v>330</v>
       </c>
       <c r="D20" s="5">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="D21" s="5">
+        <v>569</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>2011</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="D22" s="5">
+        <v>367</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="D23" s="5">
+        <v>520</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="B24">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="D24" s="5">
+        <v>569</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C25" t="s">
         <v>327</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="D26" s="5">
+        <v>367</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C27" t="s">
         <v>327</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="s">
         <v>327</v>
@@ -2010,24 +2117,24 @@
         <v>332</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B29">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C29" t="s">
         <v>327</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -2038,507 +2145,507 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B30">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="5">
-        <v>367</v>
+        <v>327</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>356</v>
       </c>
       <c r="B31">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="D31" s="5">
+        <v>520</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C32" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C33" t="s">
         <v>327</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="B34">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
-      </c>
-      <c r="D34" s="5">
-        <v>367</v>
+        <v>327</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B35">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="5">
-        <v>579</v>
+        <v>327</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C36" t="s">
         <v>327</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C37" t="s">
         <v>327</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B38">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="C38" t="s">
         <v>330</v>
       </c>
       <c r="D38" s="5">
-        <v>569</v>
+        <v>367</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C39" t="s">
         <v>327</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C40" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
-      </c>
-      <c r="D41" s="5">
-        <v>520</v>
+        <v>327</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="D42" s="5">
+        <v>367</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B43">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C43" t="s">
         <v>330</v>
       </c>
       <c r="D43" s="5">
-        <v>367</v>
+        <v>579</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B44">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C44" t="s">
-        <v>330</v>
-      </c>
-      <c r="D44" s="5">
-        <v>569</v>
+        <v>327</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B45">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C45" t="s">
         <v>327</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B46">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="D46" s="5">
+        <v>569</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="B47">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C47" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B48">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" s="5">
-        <v>389</v>
+        <v>327</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B49">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C49" t="s">
         <v>327</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B50">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="D50" s="5">
+        <v>520</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="B51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C51" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B52">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B53">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="D53" s="5">
+        <v>367</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B54">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="D54" s="5">
+        <v>569</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="B55">
         <v>2016</v>
@@ -2550,215 +2657,215 @@
         <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B56">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C56" t="s">
         <v>327</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B57">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C57" t="s">
         <v>327</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B58">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C58" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B59">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C59" t="s">
-        <v>327</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="D59" s="5">
+        <v>389</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B60">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
-      </c>
-      <c r="D60" s="5">
-        <v>569</v>
+        <v>327</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B61">
         <v>2012</v>
       </c>
       <c r="C61" t="s">
-        <v>330</v>
-      </c>
-      <c r="D61" s="5">
-        <v>367</v>
+        <v>327</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B62">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C62" t="s">
         <v>327</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B63">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>9</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>338</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B64">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C64" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="5">
-        <v>367</v>
+        <v>327</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B65">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C65" t="s">
         <v>327</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>364</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -2770,98 +2877,98 @@
         <v>520</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B67">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C67" t="s">
         <v>330</v>
       </c>
       <c r="D67" s="5">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B68">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C68" t="s">
         <v>327</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B69">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C69" t="s">
         <v>327</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B70">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C70" t="s">
         <v>327</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B71">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C71" t="s">
         <v>327</v>
@@ -2870,270 +2977,610 @@
         <v>334</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B72">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C72" t="s">
         <v>330</v>
       </c>
       <c r="D72" s="5">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B73">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C73" t="s">
-        <v>327</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="D73" s="5">
+        <v>367</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B74">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C74" t="s">
         <v>327</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B75">
         <v>2012</v>
       </c>
       <c r="C75" t="s">
-        <v>330</v>
-      </c>
-      <c r="D75" s="5">
-        <v>569</v>
+        <v>327</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B76">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="D76" s="5">
+        <v>367</v>
       </c>
       <c r="E76" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B77">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C77" t="s">
-        <v>330</v>
-      </c>
-      <c r="D77" s="5">
-        <v>367</v>
+        <v>327</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B78">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C78" t="s">
-        <v>327</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="D78" s="5">
+        <v>520</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B79">
         <v>2019</v>
       </c>
       <c r="C79" t="s">
-        <v>327</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
+      </c>
+      <c r="D79" s="5">
+        <v>520</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B80">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C80" t="s">
         <v>327</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B81">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="C81" t="s">
         <v>327</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B82">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C82" t="s">
         <v>327</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B83">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C83" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" s="5">
-        <v>569</v>
+        <v>327</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B84">
         <v>2013</v>
       </c>
       <c r="C84" t="s">
+        <v>330</v>
+      </c>
+      <c r="D84" s="5">
+        <v>520</v>
+      </c>
+      <c r="E84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85">
+        <v>2010</v>
+      </c>
+      <c r="C85" t="s">
         <v>327</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86">
+        <v>2012</v>
+      </c>
+      <c r="C86" t="s">
+        <v>327</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E86" t="s">
         <v>41</v>
       </c>
-      <c r="F84" t="s">
-        <v>42</v>
+      <c r="F86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87">
+        <v>2011</v>
+      </c>
+      <c r="C87" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="5">
+        <v>367</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>2012</v>
+      </c>
+      <c r="C88" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="5">
+        <v>569</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <v>2015</v>
+      </c>
+      <c r="C89" t="s">
+        <v>327</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <v>2017</v>
+      </c>
+      <c r="C90" t="s">
+        <v>330</v>
+      </c>
+      <c r="D90" s="5">
+        <v>367</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>2017</v>
+      </c>
+      <c r="C91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>2019</v>
+      </c>
+      <c r="C92" t="s">
+        <v>327</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E92" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>2015</v>
+      </c>
+      <c r="C93" t="s">
+        <v>327</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94">
+        <v>2013</v>
+      </c>
+      <c r="C94" t="s">
+        <v>335</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95">
+        <v>2011</v>
+      </c>
+      <c r="C95" t="s">
+        <v>327</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96">
+        <v>2017</v>
+      </c>
+      <c r="C96" t="s">
+        <v>327</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97">
+        <v>2016</v>
+      </c>
+      <c r="C97" t="s">
+        <v>330</v>
+      </c>
+      <c r="D97" s="5">
+        <v>569</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>369</v>
+      </c>
+      <c r="B98">
+        <v>2019</v>
+      </c>
+      <c r="C98" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99">
+        <v>2006</v>
+      </c>
+      <c r="C99" t="s">
+        <v>327</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100">
+        <v>2015</v>
+      </c>
+      <c r="C100" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101">
+        <v>2013</v>
+      </c>
+      <c r="C101" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4595,8 +5042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3261E927-8D62-4D8F-A2E4-23A24C7951D1}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,27 +5074,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
       </c>
       <c r="E2" s="3">
-        <v>2595.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>175</v>
@@ -4656,15 +5103,15 @@
         <v>173</v>
       </c>
       <c r="E3" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -4673,151 +5120,151 @@
         <v>173</v>
       </c>
       <c r="E4" s="3">
-        <v>10001</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="3">
-        <v>1000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
         <v>173</v>
       </c>
       <c r="E6" s="3">
-        <v>12000</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="3">
-        <v>1000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="D8" t="s">
         <v>173</v>
       </c>
       <c r="E8" s="3">
-        <v>4000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
         <v>173</v>
       </c>
       <c r="E9" s="3">
-        <v>6000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
         <v>173</v>
       </c>
       <c r="E10" s="3">
-        <v>10000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
         <v>173</v>
       </c>
       <c r="E11" s="3">
-        <v>2750</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
         <v>173</v>
       </c>
       <c r="E12" s="3">
-        <v>75</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
         <v>175</v>
@@ -4826,185 +5273,185 @@
         <v>173</v>
       </c>
       <c r="E13" s="3">
-        <v>17975</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
         <v>173</v>
       </c>
       <c r="E14" s="3">
-        <v>2434.0100000000002</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
         <v>173</v>
       </c>
       <c r="E15" s="3">
-        <v>9500</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
         <v>173</v>
       </c>
       <c r="E16" s="3">
-        <v>2934.97</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="D17" t="s">
         <v>173</v>
       </c>
       <c r="E17" s="3">
-        <v>14500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="D18" t="s">
         <v>173</v>
       </c>
       <c r="E18" s="3">
-        <v>8475</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>173</v>
       </c>
       <c r="E19" s="3">
-        <v>7840</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
         <v>173</v>
       </c>
       <c r="E20" s="3">
-        <v>750</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
         <v>173</v>
       </c>
       <c r="E21" s="3">
-        <v>4500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
         <v>173</v>
       </c>
       <c r="E22" s="3">
-        <v>270.52999999999997</v>
+        <v>10592.59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="D23" t="s">
         <v>173</v>
       </c>
       <c r="E23" s="3">
-        <v>2500</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
         <v>175</v>
@@ -5013,151 +5460,151 @@
         <v>173</v>
       </c>
       <c r="E24" s="3">
-        <v>1250</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
         <v>173</v>
       </c>
       <c r="E25" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
         <v>173</v>
       </c>
       <c r="E26" s="3">
-        <v>19670</v>
+        <v>218.3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="D27" t="s">
         <v>173</v>
       </c>
       <c r="E27" s="3">
-        <v>6650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
       </c>
       <c r="E28" s="3">
-        <v>460</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s">
         <v>173</v>
       </c>
       <c r="E29" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
         <v>173</v>
       </c>
       <c r="E30" s="3">
-        <v>4200</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
         <v>173</v>
       </c>
       <c r="E31" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
         <v>173</v>
       </c>
       <c r="E32" s="3">
-        <v>1350</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
         <v>175</v>
@@ -5166,202 +5613,202 @@
         <v>173</v>
       </c>
       <c r="E33" s="3">
-        <v>1300</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
         <v>173</v>
       </c>
       <c r="E34" s="3">
-        <v>400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="D35" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="3">
-        <v>940</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
         <v>173</v>
       </c>
       <c r="E36" s="3">
-        <v>13100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="D37" t="s">
         <v>173</v>
       </c>
       <c r="E37" s="3">
-        <v>13950</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
         <v>173</v>
       </c>
       <c r="E38" s="3">
-        <v>14290</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>173</v>
       </c>
       <c r="E39" s="3">
-        <v>150</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>173</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
         <v>173</v>
       </c>
       <c r="E41" s="3">
-        <v>45</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
         <v>173</v>
       </c>
       <c r="E42" s="3">
-        <v>1250</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D43" t="s">
         <v>173</v>
       </c>
       <c r="E43" s="3">
-        <v>20620.02</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
       </c>
       <c r="E44" s="3">
-        <v>3565</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
         <v>175</v>
@@ -5370,443 +5817,443 @@
         <v>173</v>
       </c>
       <c r="E45" s="3">
-        <v>1190.1199999999999</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
         <v>173</v>
       </c>
       <c r="E46" s="3">
-        <v>17056</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
         <v>173</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>20620.02</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
         <v>173</v>
       </c>
       <c r="E48" s="3">
-        <v>210.06</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
         <v>173</v>
       </c>
       <c r="E49" s="3">
-        <v>7750.87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
         <v>173</v>
       </c>
       <c r="E50" s="3">
-        <v>0</v>
+        <v>1190.1199999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
         <v>173</v>
       </c>
       <c r="E51" s="3">
-        <v>5400</v>
+        <v>17056</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
         <v>173</v>
       </c>
       <c r="E52" s="3">
-        <v>7240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
         <v>173</v>
       </c>
       <c r="E53" s="3">
-        <v>800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
         <v>173</v>
       </c>
       <c r="E54" s="3">
-        <v>16754.8</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="D55" t="s">
         <v>173</v>
       </c>
       <c r="E55" s="3">
-        <v>13210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
         <v>173</v>
       </c>
       <c r="E56" s="3">
-        <v>30712</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
         <v>173</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D58" t="s">
         <v>173</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>30712</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D59" t="s">
         <v>173</v>
       </c>
       <c r="E59" s="3">
-        <v>4800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
       </c>
       <c r="E60" s="3">
-        <v>10000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D61" t="s">
         <v>173</v>
       </c>
       <c r="E61" s="3">
-        <v>13518.12</v>
+        <v>7750.87</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D62" t="s">
         <v>173</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D63" t="s">
         <v>173</v>
       </c>
       <c r="E63" s="3">
-        <v>180</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
         <v>173</v>
       </c>
       <c r="E64" s="3">
-        <v>1290</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D65" t="s">
         <v>173</v>
       </c>
       <c r="E65" s="3">
-        <v>140</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s">
         <v>173</v>
       </c>
       <c r="E66" s="3">
-        <v>10592.59</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s">
         <v>173</v>
       </c>
       <c r="E67" s="3">
-        <v>218.3</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C68" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D68" t="s">
         <v>173</v>
       </c>
       <c r="E68" s="3">
-        <v>1300</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
         <v>173</v>
       </c>
       <c r="E69" s="3">
-        <v>900</v>
+        <v>13518.12</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>173</v>
       </c>
       <c r="E70" s="3">
-        <v>16000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
         <v>173</v>
@@ -5817,61 +6264,61 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
         <v>173</v>
       </c>
       <c r="E72" s="3">
-        <v>2200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
         <v>173</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>210.06</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
         <v>173</v>
       </c>
       <c r="E74" s="3">
-        <v>15990</v>
+        <v>16754.8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s">
         <v>175</v>
@@ -5880,148 +6327,148 @@
         <v>173</v>
       </c>
       <c r="E75" s="3">
-        <v>13600</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
         <v>173</v>
       </c>
       <c r="E76" s="3">
-        <v>5000</v>
+        <v>2595.91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
         <v>173</v>
       </c>
       <c r="E77" s="3">
-        <v>10000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
         <v>173</v>
       </c>
       <c r="E78" s="3">
-        <v>630</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
         <v>173</v>
       </c>
       <c r="E79" s="3">
-        <v>1100</v>
+        <v>17975</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="3">
-        <v>3800</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
         <v>173</v>
       </c>
       <c r="E81" s="3">
-        <v>450</v>
+        <v>2934.97</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
         <v>173</v>
       </c>
       <c r="E82" s="3">
-        <v>500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
         <v>173</v>
       </c>
       <c r="E83" s="3">
-        <v>15990</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
         <v>192</v>
@@ -6033,83 +6480,83 @@
         <v>173</v>
       </c>
       <c r="E84" s="3">
-        <v>19750</v>
+        <v>270.52999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
         <v>173</v>
       </c>
       <c r="E85" s="3">
-        <v>7450</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
         <v>173</v>
       </c>
       <c r="E86" s="3">
-        <v>2150</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
         <v>173</v>
       </c>
       <c r="E87" s="3">
-        <v>200</v>
+        <v>2434.0100000000002</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D88" t="s">
         <v>173</v>
       </c>
       <c r="E88" s="3">
-        <v>4500</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
         <v>175</v>
@@ -6118,211 +6565,211 @@
         <v>173</v>
       </c>
       <c r="E89" s="3">
-        <v>13920</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
         <v>173</v>
       </c>
       <c r="E90" s="3">
-        <v>12700</v>
+        <v>19670</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
         <v>173</v>
       </c>
       <c r="E91" s="3">
-        <v>136.5</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
         <v>173</v>
       </c>
       <c r="E92" s="3">
-        <v>5500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
         <v>173</v>
       </c>
       <c r="E93" s="3">
-        <v>160</v>
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
         <v>173</v>
       </c>
       <c r="E94" s="3">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="D95" t="s">
         <v>173</v>
       </c>
       <c r="E95" s="3">
-        <v>3500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="D96" t="s">
         <v>173</v>
       </c>
       <c r="E96" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="D97" t="s">
         <v>173</v>
       </c>
       <c r="E97" s="3">
-        <v>450</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="D98" t="s">
         <v>173</v>
       </c>
       <c r="E98" s="3">
-        <v>550</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="D99" t="s">
         <v>173</v>
       </c>
       <c r="E99" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
         <v>173</v>
       </c>
       <c r="E100" s="3">
-        <v>3500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
         <v>173</v>
       </c>
       <c r="E101" s="3">
-        <v>8500</v>
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
@@ -6332,12 +6779,1190 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C3CD3B-A361-40DB-8374-0C3FAAEAF244}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>373</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>374</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>325</v>
+      </c>
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" t="s">
+        <v>374</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" t="s">
+        <v>373</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" t="s">
+        <v>373</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
+        <v>374</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>373</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>374</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>373</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>373</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>373</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" t="s">
+        <v>373</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
+        <v>374</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>373</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" t="s">
+        <v>374</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" t="s">
+        <v>374</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>373</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" t="s">
+        <v>373</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" t="s">
+        <v>373</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>373</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>